--- a/Udacity Courses.xlsx
+++ b/Udacity Courses.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="146">
   <si>
     <t>No</t>
   </si>
@@ -446,12 +446,21 @@
   </si>
   <si>
     <t>GT - Embedded Systems</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Inprogress</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -492,7 +501,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -505,40 +514,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -583,15 +576,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -611,51 +595,849 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="100">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -955,824 +1737,1220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="80.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="80.28515625" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="10" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8">
+      <c r="D1" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="8" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="D3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="8" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
+      <c r="D4" t="s">
+        <v>144</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="J4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
+      <c r="D5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
+      <c r="D7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" t="s">
+        <v>145</v>
+      </c>
+      <c r="I7" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="D9" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11">
+      <c r="D11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="11">
+      <c r="D13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="11">
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11">
+      <c r="D15" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
+      <c r="D17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="11">
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="8" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="D19" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="8" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="11">
+      <c r="D20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="D21" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11">
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11">
+      <c r="D23" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="8" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11">
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="8" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11">
+      <c r="D25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11">
+      <c r="D26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="15" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11">
+      <c r="D27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11">
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="15" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="11">
+      <c r="D29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="8" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="D30" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="8" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="11">
+      <c r="D31" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="11">
+      <c r="D32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="8" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="11">
+      <c r="D33" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
         <v>33</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="11">
+      <c r="D34" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
         <v>34</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="11">
+      <c r="D35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
         <v>35</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="8" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="11">
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="5">
         <v>36</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="11">
+      <c r="D37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
         <v>37</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11">
+      <c r="D38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
         <v>38</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="8" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11">
+      <c r="D39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
         <v>39</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="11">
+      <c r="D40" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
         <v>40</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="8" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="11">
+      <c r="D41" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="11">
+      <c r="D42" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
         <v>42</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="8" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="11">
+      <c r="D43" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
         <v>43</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="11">
+      <c r="D44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
         <v>44</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="8" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="11">
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
         <v>45</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="11">
+      <c r="D46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="8" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="11">
+      <c r="D47" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
         <v>47</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="8" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="11">
+      <c r="D48" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
         <v>48</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11">
+      <c r="D49" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
         <v>49</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="8" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="11">
+      <c r="D50" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="8" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="11">
+      <c r="D51" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
         <v>51</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="8" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="11">
+      <c r="D52" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
         <v>52</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" s="8" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="11">
+      <c r="D53" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="11">
+      <c r="D54" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
         <v>54</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" s="8" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="11">
+      <c r="D55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
         <v>55</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="8" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="11">
+      <c r="D56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
         <v>56</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="8" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="11">
+      <c r="D57" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
         <v>57</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="8" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="11">
+      <c r="D58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>58</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="11">
+      <c r="D59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
         <v>59</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="15" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="11">
+      <c r="D60" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
         <v>60</v>
       </c>
-      <c r="B61" s="5" t="s">
+      <c r="B61" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" s="8" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="11">
+      <c r="D61" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>61</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" s="8" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="11">
+      <c r="D62" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="5">
         <v>62</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" s="8" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="11">
+      <c r="D63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="5">
         <v>63</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="8" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="11">
+      <c r="D64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
         <v>64</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11">
+      <c r="D65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
         <v>65</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="8" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="11">
+      <c r="D66" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="5">
         <v>66</v>
       </c>
-      <c r="B67" s="5" t="s">
+      <c r="B67" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="12" t="s">
+      <c r="C67" s="8" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
+      <c r="D67" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5">
         <v>67</v>
       </c>
-      <c r="B68" s="5" t="s">
+      <c r="B68" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="8" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
+      <c r="D68" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="5">
         <v>68</v>
       </c>
-      <c r="B69" s="5" t="s">
+      <c r="B69" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="8" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
+      <c r="D69" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="5">
         <v>69</v>
       </c>
-      <c r="B70" s="5" t="s">
+      <c r="B70" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" s="8" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
+      <c r="D70" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="5">
         <v>70</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="12" t="s">
+      <c r="C71" s="8" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
+      <c r="D71" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="5">
         <v>71</v>
       </c>
-      <c r="B72" s="5" t="s">
+      <c r="B72" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="12" t="s">
+      <c r="C72" s="8" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="13">
+      <c r="D72" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
         <v>72</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C73" s="13" t="s">
         <v>121</v>
       </c>
+      <c r="D73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1"/>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+      <formula>$H$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="14" operator="greaterThan">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+      <formula>$H$3</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="formula" val="$H$4"/>
+        <cfvo type="formula" val="$H$3"/>
+        <color rgb="FF00B050"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+      <formula>$H$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+      <formula>$H$3</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"Inprogress"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="formula" val="$H$3"/>
+        <cfvo type="formula" val="$H$4"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D73">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Completed"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"Inprogress"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="formula" val="$H$3"/>
+        <cfvo type="formula" val="$H$4"/>
+        <color rgb="FFFF0000"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F8">
+      <formula1>$F$7:$F$8</formula1>
+    </dataValidation>
+    <dataValidation type="list" showErrorMessage="1" sqref="J4">
+      <formula1>$H$3:$H$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H6 I7 D2:D73">
+      <formula1>$H$3:$H$4</formula1>
+    </dataValidation>
+  </dataValidations>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1"/>
     <hyperlink ref="C3" r:id="rId2"/>

--- a/Udacity Courses.xlsx
+++ b/Udacity Courses.xlsx
@@ -527,7 +527,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -539,57 +539,12 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -600,7 +555,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -608,168 +563,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <fill>
         <patternFill>
@@ -820,50 +632,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
@@ -874,566 +642,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1739,8 +947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="L65" sqref="L65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1753,64 +961,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
+      <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
+      <c r="A3" s="9">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>145</v>
-      </c>
-      <c r="H3" s="16" t="s">
+      <c r="D3" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="9">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="6" t="s">
         <v>144</v>
       </c>
       <c r="J4" t="s">
@@ -1818,45 +1026,45 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="9">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>145</v>
+      <c r="D5" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
+      <c r="A6" s="9">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D6" t="s">
-        <v>145</v>
+      <c r="D6" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5">
+      <c r="A7" s="9">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>145</v>
+      <c r="D7" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="F7" t="s">
         <v>145</v>
@@ -1866,929 +1074,929 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5">
+      <c r="A8" s="9">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D8" t="s">
-        <v>145</v>
+      <c r="D8" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="F8" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5">
+      <c r="A9" s="9">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="5">
+      <c r="A10" s="9">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5">
+      <c r="A11" s="9">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D11" t="s">
-        <v>145</v>
+      <c r="D11" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
+      <c r="A12" s="9">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
+      <c r="A13" s="9">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
+      <c r="A14" s="9">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="D14" t="s">
-        <v>145</v>
+      <c r="D14" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
+      <c r="A15" s="9">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
+      <c r="A16" s="9">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
+      <c r="A17" s="9">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="9">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+      <c r="A19" s="9">
         <v>18</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="9">
         <v>19</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="9">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="9">
         <v>21</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="5">
+      <c r="A23" s="9">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="5">
+      <c r="A24" s="9">
         <v>23</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5">
+      <c r="A25" s="9">
         <v>24</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+      <c r="A26" s="9">
         <v>25</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+      <c r="A27" s="9">
         <v>26</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+      <c r="A28" s="9">
         <v>27</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+      <c r="A30" s="9">
         <v>29</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="5">
+      <c r="A31" s="9">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+      <c r="A32" s="9">
         <v>31</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="5">
+      <c r="A33" s="9">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="8" t="s">
+      <c r="C33" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
+      <c r="A34" s="9">
         <v>33</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+      <c r="A35" s="9">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="D35" t="s">
-        <v>145</v>
+      <c r="D35" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="9">
         <v>35</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="5">
+      <c r="A37" s="9">
         <v>36</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
+      <c r="A38" s="9">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
+      <c r="A39" s="9">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D39" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
+      <c r="A40" s="9">
         <v>39</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
+      <c r="A41" s="9">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
+      <c r="A42" s="9">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="8" t="s">
+      <c r="C42" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
+      <c r="A43" s="9">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
+      <c r="A44" s="9">
         <v>43</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
+      <c r="A45" s="9">
         <v>44</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
+      <c r="A46" s="9">
         <v>45</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
+      <c r="A47" s="9">
         <v>46</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
+      <c r="A48" s="9">
         <v>47</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
+      <c r="A49" s="9">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="C49" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
+      <c r="A50" s="9">
         <v>49</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
+      <c r="A51" s="9">
         <v>50</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
+      <c r="A52" s="9">
         <v>51</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
+      <c r="A53" s="9">
         <v>52</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="C53" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
+      <c r="A54" s="9">
         <v>53</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
+      <c r="A55" s="9">
         <v>54</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D55" t="s">
-        <v>145</v>
+      <c r="D55" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
+      <c r="A56" s="9">
         <v>55</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D56" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
+      <c r="A57" s="9">
         <v>56</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
+      <c r="A58" s="9">
         <v>57</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
+      <c r="A59" s="9">
         <v>58</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
+      <c r="A60" s="9">
         <v>59</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
+      <c r="A61" s="9">
         <v>60</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
+      <c r="A62" s="9">
         <v>61</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
+      <c r="A63" s="9">
         <v>62</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="5">
+      <c r="A64" s="9">
         <v>63</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="9">
         <v>64</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D65" t="s">
-        <v>145</v>
+      <c r="D65" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="9">
         <v>65</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D66" t="s">
-        <v>145</v>
+      <c r="D66" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="5">
+      <c r="A67" s="9">
         <v>66</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D67" t="s">
-        <v>145</v>
+      <c r="D67" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5">
+      <c r="A68" s="9">
         <v>67</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D68" t="s">
-        <v>145</v>
+      <c r="D68" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="5">
+      <c r="A69" s="9">
         <v>68</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="9" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="5">
+      <c r="A70" s="9">
         <v>69</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
+      <c r="A71" s="9">
         <v>70</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="D71" t="s">
-        <v>145</v>
+      <c r="D71" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="5">
+      <c r="A72" s="9">
         <v>71</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="6">
+      <c r="A73" s="9">
         <v>72</v>
       </c>
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C73" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="9" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2878,15 +2086,15 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H6">
-    <cfRule type="cellIs" dxfId="9" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="13" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="7" priority="14" operator="greaterThan">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>$H$3</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -2899,20 +2107,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="10" operator="equal">
       <formula>$H$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="5" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="9" operator="equal">
       <formula>$H$3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Completed"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Inprogress"</formula>
     </cfRule>
     <cfRule type="colorScale" priority="8">
